--- a/biology/Histoire de la zoologie et de la botanique/Meriwether_Lewis/Meriwether_Lewis.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Meriwether_Lewis/Meriwether_Lewis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Meriwether Lewis, né le 18 août 1774 à Ivy (en), dans la colonie de Virginie, et mort le 11 octobre 1809, est un explorateur et soldat américain. Il mena, avec William Clark, l'expédition Lewis et Clark à travers l'Amérique du Nord.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de William et Lucy (Meriwether) Lewis, Meriwether Lewis est né dans le comté d'Albemarle en Virginie (près de Charlottesville). À l'âge de 10 ans, il déménagea en Géorgie avec ses parents. À 13 ans, il retourna en Virginie pour y être éduqué par des précepteurs particuliers.
-Lewis s'enrôla dans la milice de Virginie et en 1794 fit partie d'un détachement qui réprima la révolte du Whisky. L'année suivante, il intégra l'armée régulière et servit jusqu'en 1801. En 1797 il fut initié à la franc-maçonnerie[1]. Il quitta l'armée avec le rang de capitaine.
+Lewis s'enrôla dans la milice de Virginie et en 1794 fit partie d'un détachement qui réprima la révolte du Whisky. L'année suivante, il intégra l'armée régulière et servit jusqu'en 1801. En 1797 il fut initié à la franc-maçonnerie. Il quitta l'armée avec le rang de capitaine.
 Lewis était secrétaire particulier du président Thomas Jefferson en 1801 ; il a donc été très impliqué dans la préparation de l'expédition : il fut envoyé par Jefferson à Philadelphie pour apprendre les rudiments nécessaires et en particulier à établir une carte.
 Après son retour de l'expédition Lewis et Clark, Lewis a reçu en récompense une terre de 6 km2 et fut gouverneur du Territoire de Louisiane.
 Il ne devait pas se rendre à Saint-Louis avant mars 1808, un an après sa nomination au poste de gouverneur, retenu sur la côte Est par Thomas Jefferson. Période qu'il ne sut ou ne put pas mettre à profit pour écrire l'ouvrage attendu par le président, et annoncé sous deux ans par son ex secrétaire particulier (en deux parties et trois tomes).
@@ -550,7 +564,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La genre de plantes alpines Lewisia (famille des Portulacaceae), que l'on trouve dans les jardins rocailleux porte son nom. Le pic de Lewis (Melanerpes lewis) lui a été dédié par l'ornithologue britannique George Robert Gray (1808-1872) en 1849.
 Le comté de Lewis dans le Tennessee, la ville de Lewiston dans l'Idaho et l'installation militaire de Fort Lewis dans l'État de Washington portent également son nom. En 1941, un navire de guerre a été baptisé SS Meriwether Lewis. Il a été torpillé et coulé en 1943.
@@ -582,7 +598,9 @@
           <t>Relations avec Clark</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son ouvrage écrit en 2003 I Should Be Extremely Happy in Your Company, l'auteur Brian Hall explicite qu'une des raisons pour lesquelles Lewis Merriwether se serait suicidé à l'âge de 35 ans était que Lewis se sentit malheureux en amour après que William Clark épousa une femme du nom de Julia.
 Lewis était déjà profondément déprimé après l'expédition et ne se réadapta pas vraiment à son retour dans la vie civilisée. Quelques jours avant son suicide sur la piste Natchez, Lewis était convaincu que William Clark essayait de le rattraper, venant à son « aide ».
